--- a/class files/DB Tables.xlsx
+++ b/class files/DB Tables.xlsx
@@ -4,21 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="4935" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Tire Data" sheetId="2" r:id="rId2"/>
     <sheet name="Store Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Inventory Data" sheetId="4" r:id="rId4"/>
-    <sheet name="Employee Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Employee Data" sheetId="5" r:id="rId4"/>
+    <sheet name="Customer Data" sheetId="7" r:id="rId5"/>
+    <sheet name="Dealer Data" sheetId="8" r:id="rId6"/>
+    <sheet name="Inventory Data" sheetId="4" r:id="rId7"/>
+    <sheet name="Retail Order" sheetId="6" r:id="rId8"/>
+    <sheet name="Retail Order Detail" sheetId="9" r:id="rId9"/>
+    <sheet name="Transfer Order" sheetId="10" r:id="rId10"/>
+    <sheet name="Transfer Order Detail" sheetId="11" r:id="rId11"/>
+    <sheet name="Purchase Order" sheetId="12" r:id="rId12"/>
+    <sheet name="Purchase Order Detail" sheetId="13" r:id="rId13"/>
+    <sheet name="Wholesale Order" sheetId="14" r:id="rId14"/>
+    <sheet name="Wholesale Order Detail" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="191">
   <si>
     <t>Tire Code</t>
   </si>
@@ -29,9 +39,6 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Wholesale Price</t>
-  </si>
-  <si>
     <t>Retail Price</t>
   </si>
   <si>
@@ -254,12 +261,6 @@
     <t>userSecurityLevel</t>
   </si>
   <si>
-    <t>jobCode</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>Stanley</t>
   </si>
   <si>
@@ -272,9 +273,6 @@
     <t>sh1234</t>
   </si>
   <si>
-    <t>Salesman</t>
-  </si>
-  <si>
     <t>Barnes</t>
   </si>
   <si>
@@ -299,9 +297,6 @@
     <t>hn1234</t>
   </si>
   <si>
-    <t>Mechanic</t>
-  </si>
-  <si>
     <t>Alan</t>
   </si>
   <si>
@@ -314,9 +309,6 @@
     <t>ar1234</t>
   </si>
   <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>retailOrder</t>
   </si>
   <si>
@@ -440,9 +432,6 @@
     <t>dealer</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>Calculated</t>
   </si>
   <si>
@@ -471,6 +460,147 @@
   </si>
   <si>
     <t>decimal(7, 2)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Retail Order# with a 3 digit line identifier(Ex: 12345678001)</t>
+  </si>
+  <si>
+    <t>decimal(7,2)</t>
+  </si>
+  <si>
+    <t>Dealer Price</t>
+  </si>
+  <si>
+    <t>Wholesale Cost</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Barb</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>bmason</t>
+  </si>
+  <si>
+    <t>bm1234</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>8379 SW 10th Ave</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>97378</t>
+  </si>
+  <si>
+    <t>541 876-1289</t>
+  </si>
+  <si>
+    <t>541 876-1290</t>
+  </si>
+  <si>
+    <t>store0005@store.com</t>
+  </si>
+  <si>
+    <t>R0000001</t>
+  </si>
+  <si>
+    <t>C000000001</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>736 SE York Lane</t>
+  </si>
+  <si>
+    <t>Coos Bay</t>
+  </si>
+  <si>
+    <t>541 746-2276</t>
+  </si>
+  <si>
+    <t>D000000001</t>
+  </si>
+  <si>
+    <t>Steve's Auto Repair</t>
+  </si>
+  <si>
+    <t>847 Broadway Blvd</t>
+  </si>
+  <si>
+    <t>Colton</t>
+  </si>
+  <si>
+    <t>503 425-9876</t>
+  </si>
+  <si>
+    <t>R0000001001</t>
+  </si>
+  <si>
+    <t>R0000001002</t>
+  </si>
+  <si>
+    <t>T0000001</t>
+  </si>
+  <si>
+    <t>T0000001001</t>
+  </si>
+  <si>
+    <t>P0000001</t>
+  </si>
+  <si>
+    <t>V000000001</t>
+  </si>
+  <si>
+    <t>W0000001</t>
+  </si>
+  <si>
+    <t>W0000001001</t>
+  </si>
+  <si>
+    <t>J475</t>
+  </si>
+  <si>
+    <t>1000000001</t>
+  </si>
+  <si>
+    <t>1000000002</t>
+  </si>
+  <si>
+    <t>1000000003</t>
+  </si>
+  <si>
+    <t>1000000004</t>
+  </si>
+  <si>
+    <t>P0000001001</t>
   </si>
 </sst>
 </file>
@@ -562,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -576,6 +706,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -878,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,240 +1024,240 @@
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,708 +1267,699 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="C31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>146</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>59</v>
+      <c r="A41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" t="s">
-        <v>141</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="A86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>50</v>
+        <v>129</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>50</v>
+        <v>124</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1842,12 +1968,285 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2">
+        <v>745.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,9 +2257,10 @@
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1871,27 +2271,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
       <c r="E2">
         <v>79.95</v>
@@ -1899,19 +2302,22 @@
       <c r="F2">
         <v>104.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
       </c>
       <c r="E3">
         <v>199.95</v>
@@ -1919,18 +2325,22 @@
       <c r="F3">
         <v>235.95</v>
       </c>
+      <c r="G3" s="13">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,92 +2356,427 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>35</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1000000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>97856</v>
+      </c>
+      <c r="H2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>97047</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2046,27 +2791,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2074,13 +2819,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -2088,13 +2833,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2105,154 +2850,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1000000002</v>
+      </c>
+      <c r="E2" s="16">
+        <v>41105</v>
+      </c>
+      <c r="F2" s="13">
+        <v>476.89</v>
+      </c>
+      <c r="G2" s="13">
+        <v>114.5</v>
+      </c>
+      <c r="H2" s="13">
+        <f>SUM(F2:G2)</f>
+        <v>591.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1000000001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1000000002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1000000003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1000000004</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
